--- a/proyecto/Evaluaciones de Pruebas.xlsx
+++ b/proyecto/Evaluaciones de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acros\OneDrive\Escritorio\PFPythonYevilao\proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8254CA-520F-4F0D-8E4F-B00E287FE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9C001-AD4C-426A-A41C-1712D4F17CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46574EC3-E882-994A-AB32-DF5CB9EC4566}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46574EC3-E882-994A-AB32-DF5CB9EC4566}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Evaluación de Pruebas Comunidad Austral</t>
+  </si>
+  <si>
+    <t>Nueva Prueba de mensajeria</t>
+  </si>
+  <si>
+    <t>Se repararon los errores y ahora tiene respuesta y grabado de mensajes.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +269,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -443,6 +455,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -451,7 +489,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,45 +503,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,6 +538,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -843,112 +902,112 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
     <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="69.125" customWidth="1"/>
+    <col min="4" max="4" width="69.09765625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="28.8984375" customWidth="1"/>
+    <col min="7" max="7" width="31.8984375" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:13" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:13" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="2:13" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -957,138 +1016,184 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+    <row r="10" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="9">
         <v>45201</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15">
+    <row r="11" spans="2:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="9">
         <v>45202</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
+    <row r="12" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="28">
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="9">
         <v>45202</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="29">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>45202</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="29">
+        <v>5</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="19">
+        <v>45203</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
